--- a/teaching/traditional_assets/database/data/israel/israel_heathcare_information_and_technology.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_heathcare_information_and_technology.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ4"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,34 +591,34 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0458</v>
+        <v>-0.225</v>
       </c>
       <c r="G2">
-        <v>-31.87500000000001</v>
+        <v>-154.4117647058824</v>
       </c>
       <c r="H2">
-        <v>-349.125</v>
+        <v>-375.4901960784314</v>
       </c>
       <c r="I2">
-        <v>-459.8948607459322</v>
+        <v>-369.110752679764</v>
       </c>
       <c r="J2">
-        <v>-448.8942892311761</v>
+        <v>-369.110752679764</v>
       </c>
       <c r="K2">
-        <v>-12.2</v>
+        <v>-36.21</v>
       </c>
       <c r="L2">
-        <v>-152.5</v>
+        <v>-355.0000000000001</v>
       </c>
       <c r="M2">
-        <v>6.42</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.01710631494804157</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.5262295081967213</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -630,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>6.42</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>57.52</v>
+        <v>147.69</v>
       </c>
       <c r="V2">
-        <v>0.1532640554223288</v>
+        <v>0.144434447552174</v>
       </c>
       <c r="W2">
-        <v>2.485568746456798</v>
+        <v>-0.6587112171837709</v>
       </c>
       <c r="X2">
-        <v>0.09262018905453007</v>
+        <v>0.06296342851812735</v>
       </c>
       <c r="Y2">
-        <v>2.392948557402268</v>
+        <v>-0.7216746457018982</v>
       </c>
       <c r="Z2">
-        <v>0.05722688671724322</v>
+        <v>0.01105992718171305</v>
       </c>
       <c r="AA2">
-        <v>-1.442964109638406</v>
+        <v>7.0334928229665</v>
       </c>
       <c r="AB2">
-        <v>0.09134528705669828</v>
+        <v>0.06186132469655085</v>
       </c>
       <c r="AC2">
-        <v>-1.534309396695105</v>
+        <v>6.971631498269949</v>
       </c>
       <c r="AD2">
-        <v>3.913</v>
+        <v>0.593</v>
       </c>
       <c r="AE2">
-        <v>5.557944298372859</v>
+        <v>4.076483866679622</v>
       </c>
       <c r="AF2">
-        <v>9.470944298372858</v>
+        <v>4.669483866679622</v>
       </c>
       <c r="AG2">
-        <v>-48.04905570162715</v>
+        <v>-143.0205161333204</v>
       </c>
       <c r="AH2">
-        <v>0.02461449971396115</v>
+        <v>0.004545795127496768</v>
       </c>
       <c r="AI2">
-        <v>0.1323294584306355</v>
+        <v>0.02999806854479214</v>
       </c>
       <c r="AJ2">
-        <v>-0.1468263317150833</v>
+        <v>-0.1626121066750579</v>
       </c>
       <c r="AK2">
-        <v>-3.419631782839777</v>
+        <v>-17.94601990867793</v>
       </c>
       <c r="AL2">
-        <v>0.174</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM2">
-        <v>-0.706</v>
+        <v>-2.79</v>
       </c>
       <c r="AN2">
-        <v>-0.1141481913652275</v>
+        <v>-0.01646581884822569</v>
       </c>
       <c r="AO2">
-        <v>-213.6206896551724</v>
+        <v>-538.8571428571428</v>
       </c>
       <c r="AP2">
-        <v>1.40166440203113</v>
+        <v>3.971247740693074</v>
       </c>
       <c r="AQ2">
-        <v>52.6487252124646</v>
+        <v>13.51971326164874</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BioLight Life Sciences Ltd. (TASE:BOLT)</t>
+          <t>Compugen Ltd. (NasdaqGM:CGEN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -721,35 +718,17 @@
           <t>Heathcare Information and Technology</t>
         </is>
       </c>
-      <c r="D3">
-        <v>0.0458</v>
-      </c>
-      <c r="G3">
-        <v>-46.875</v>
-      </c>
-      <c r="H3">
-        <v>-76.625</v>
-      </c>
-      <c r="I3">
-        <v>-65.875</v>
-      </c>
-      <c r="J3">
-        <v>-62.7235725308642</v>
-      </c>
       <c r="K3">
-        <v>18.1</v>
-      </c>
-      <c r="L3">
-        <v>226.25</v>
+        <v>-27.6</v>
       </c>
       <c r="M3">
-        <v>6.42</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.5836363636363636</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.354696132596685</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -758,82 +737,76 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>6.42</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>9.92</v>
+        <v>132.9</v>
       </c>
       <c r="V3">
-        <v>0.9018181818181819</v>
+        <v>0.1324496711181981</v>
       </c>
       <c r="W3">
-        <v>5.764331210191083</v>
+        <v>-0.6587112171837709</v>
       </c>
       <c r="X3">
-        <v>0.09239989607478095</v>
+        <v>0.06193089308477812</v>
       </c>
       <c r="Y3">
-        <v>5.671931314116302</v>
+        <v>-0.720642110268549</v>
       </c>
       <c r="Z3">
-        <v>-0.01072386058981233</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.6726388475159699</v>
+        <v>17.8805101948484</v>
       </c>
       <c r="AB3">
-        <v>0.09138929453921053</v>
+        <v>0.06178006332939204</v>
       </c>
       <c r="AC3">
-        <v>0.5812495529767594</v>
+        <v>17.81873013151901</v>
       </c>
       <c r="AD3">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>4.076483866679622</v>
       </c>
       <c r="AF3">
-        <v>0.193</v>
+        <v>4.076483866679622</v>
       </c>
       <c r="AG3">
-        <v>-9.727</v>
+        <v>-128.8235161333204</v>
       </c>
       <c r="AH3">
-        <v>0.01724291968194407</v>
+        <v>0.004046232276344692</v>
       </c>
       <c r="AI3">
-        <v>0.009464031775609278</v>
+        <v>0.03105265883583212</v>
       </c>
       <c r="AJ3">
-        <v>-7.641005498821683</v>
+        <v>-0.147298170611409</v>
       </c>
       <c r="AK3">
-        <v>-0.9287692160794425</v>
+        <v>79.34846687963136</v>
       </c>
       <c r="AL3">
-        <v>0.174</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.174</v>
+        <v>-1.62</v>
       </c>
       <c r="AN3">
-        <v>-0.03733075435203095</v>
-      </c>
-      <c r="AO3">
-        <v>-30.28735632183908</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>1.881431334622824</v>
+        <v>4.682107877201439</v>
       </c>
       <c r="AQ3">
-        <v>-30.28735632183908</v>
+        <v>17.96296296296296</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +817,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compugen Ltd. (NasdaqGM:CGEN)</t>
+          <t>Cellect Biotechnology Ltd. (NasdaqCM:APOP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,7 +826,7 @@
         </is>
       </c>
       <c r="K4">
-        <v>-30.3</v>
+        <v>-5.57</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -877,70 +850,198 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>47.6</v>
+        <v>6.1</v>
       </c>
       <c r="V4">
-        <v>0.1306615426846006</v>
+        <v>0.7227488151658767</v>
       </c>
       <c r="W4">
-        <v>-0.7931937172774869</v>
+        <v>-1.048964218455744</v>
       </c>
       <c r="X4">
-        <v>0.09284048203427919</v>
+        <v>0.06296342851812735</v>
       </c>
       <c r="Y4">
-        <v>-0.8860341993117661</v>
+        <v>-1.111927646973871</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA4">
-        <v>-3.558567066792782</v>
+        <v>7.0334928229665</v>
       </c>
       <c r="AB4">
-        <v>0.09130127957418603</v>
+        <v>0.06186132469655085</v>
       </c>
       <c r="AC4">
-        <v>-3.649868346366969</v>
+        <v>6.971631498269949</v>
       </c>
       <c r="AD4">
-        <v>3.72</v>
+        <v>0.25</v>
       </c>
       <c r="AE4">
-        <v>5.557944298372859</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.277944298372859</v>
+        <v>0.25</v>
       </c>
       <c r="AG4">
-        <v>-38.32205570162714</v>
+        <v>-5.85</v>
       </c>
       <c r="AH4">
-        <v>0.02483536418564009</v>
+        <v>0.02876869965477561</v>
       </c>
       <c r="AI4">
-        <v>0.1812879439682348</v>
+        <v>0.0413907284768212</v>
       </c>
       <c r="AJ4">
-        <v>-0.1175602717052242</v>
+        <v>-2.258687258687259</v>
       </c>
       <c r="AK4">
-        <v>-10.71063507586043</v>
+        <v>97.50000000000063</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AM4">
-        <v>-0.88</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AN4">
-        <v>-0.1277911370663002</v>
+        <v>-0.0580046403712297</v>
+      </c>
+      <c r="AO4">
+        <v>-62.99999999999999</v>
       </c>
       <c r="AP4">
-        <v>1.316456740007803</v>
+        <v>1.357308584686775</v>
       </c>
       <c r="AQ4">
-        <v>36.25</v>
+        <v>-62.99999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BioLight Life Sciences Ltd. (TASE:BOLT)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Heathcare Information and Technology</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>-0.225</v>
+      </c>
+      <c r="G5">
+        <v>-24.2156862745098</v>
+      </c>
+      <c r="H5">
+        <v>-39.6078431372549</v>
+      </c>
+      <c r="I5">
+        <v>-41.27450980392157</v>
+      </c>
+      <c r="J5">
+        <v>-41.27450980392157</v>
+      </c>
+      <c r="K5">
+        <v>-3.04</v>
+      </c>
+      <c r="L5">
+        <v>-29.80392156862745</v>
+      </c>
+      <c r="M5">
+        <v>-0</v>
+      </c>
+      <c r="N5">
+        <v>-0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>-0</v>
+      </c>
+      <c r="Q5">
+        <v>-0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>8.69</v>
+      </c>
+      <c r="V5">
+        <v>0.8121495327102803</v>
+      </c>
+      <c r="W5">
+        <v>-0.1433962264150943</v>
+      </c>
+      <c r="X5">
+        <v>0.06306181003249545</v>
+      </c>
+      <c r="Y5">
+        <v>-0.2064580364475898</v>
+      </c>
+      <c r="Z5">
+        <v>0.008890438420639761</v>
+      </c>
+      <c r="AA5">
+        <v>-0.3669484877538569</v>
+      </c>
+      <c r="AB5">
+        <v>0.06186885738820839</v>
+      </c>
+      <c r="AC5">
+        <v>-0.4288173451420653</v>
+      </c>
+      <c r="AD5">
+        <v>0.343</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0.343</v>
+      </c>
+      <c r="AG5">
+        <v>-8.347</v>
+      </c>
+      <c r="AH5">
+        <v>0.03106040025355429</v>
+      </c>
+      <c r="AI5">
+        <v>0.01869923131439787</v>
+      </c>
+      <c r="AJ5">
+        <v>-3.547386315342117</v>
+      </c>
+      <c r="AK5">
+        <v>-0.864705272972133</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>-1.24</v>
+      </c>
+      <c r="AN5">
+        <v>-0.08186157517899761</v>
+      </c>
+      <c r="AP5">
+        <v>1.992124105011933</v>
+      </c>
+      <c r="AQ5">
+        <v>3.395161290322581</v>
       </c>
     </row>
   </sheetData>
